--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-18.17126180013747</v>
+        <v>7.469150330857293</v>
       </c>
       <c r="C3">
-        <v>-10.03159025315832</v>
+        <v>-10.70211146928018</v>
       </c>
       <c r="D3">
-        <v>-7.884019781358927</v>
+        <v>-2.562439922301026</v>
       </c>
       <c r="E3">
-        <v>-11.32404976788226</v>
+        <v>-0.4148694505016339</v>
       </c>
       <c r="F3">
-        <v>-11.38522394629646</v>
+        <v>-3.854899437024964</v>
       </c>
       <c r="G3">
-        <v>-9.343768009140204</v>
+        <v>-3.916073615439165</v>
       </c>
       <c r="H3">
-        <v>-9.926362546173845</v>
+        <v>-1.87461767828291</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>8.13967154697915</v>
+        <v>-18.17126180013747</v>
       </c>
       <c r="C4">
-        <v>10.28724201877854</v>
+        <v>-10.03159025315832</v>
       </c>
       <c r="D4">
-        <v>6.847212032255212</v>
+        <v>-7.884019781358927</v>
       </c>
       <c r="E4">
-        <v>6.786037853841011</v>
+        <v>-11.32404976788226</v>
       </c>
       <c r="F4">
-        <v>8.827493790997265</v>
+        <v>-11.38522394629646</v>
       </c>
       <c r="G4">
-        <v>8.244899253963624</v>
+        <v>-9.343768009140204</v>
       </c>
       <c r="H4">
-        <v>8.340574294772981</v>
+        <v>-9.926362546173845</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.147570471799392</v>
+        <v>8.13967154697915</v>
       </c>
       <c r="C5">
-        <v>-1.292459514723937</v>
+        <v>10.28724201877854</v>
       </c>
       <c r="D5">
-        <v>-1.353633693138139</v>
+        <v>6.847212032255212</v>
       </c>
       <c r="E5">
-        <v>0.6878222440181159</v>
+        <v>6.786037853841011</v>
       </c>
       <c r="F5">
-        <v>0.1052277069844749</v>
+        <v>8.827493790997265</v>
       </c>
       <c r="G5">
-        <v>0.2009027477938327</v>
+        <v>8.244899253963624</v>
       </c>
       <c r="H5">
-        <v>-0.0595162892048901</v>
+        <v>8.340574294772981</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-3.44002998652333</v>
+        <v>2.147570471799392</v>
       </c>
       <c r="C6">
-        <v>-3.501204164937531</v>
+        <v>-1.292459514723937</v>
       </c>
       <c r="D6">
-        <v>-1.459748227781277</v>
+        <v>-1.353633693138139</v>
       </c>
       <c r="E6">
-        <v>-2.042342764814918</v>
+        <v>0.6878222440181159</v>
       </c>
       <c r="F6">
-        <v>-1.94666772400556</v>
+        <v>0.1052277069844749</v>
       </c>
       <c r="G6">
-        <v>-2.207086761004283</v>
+        <v>0.2009027477938327</v>
       </c>
       <c r="H6">
-        <v>-1.371631764845791</v>
+        <v>-0.0595162892048901</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.06117417841420103</v>
+        <v>-3.44002998652333</v>
       </c>
       <c r="C7">
-        <v>1.980281758742053</v>
+        <v>-3.501204164937531</v>
       </c>
       <c r="D7">
-        <v>1.397687221708412</v>
+        <v>-1.459748227781277</v>
       </c>
       <c r="E7">
-        <v>1.49336226251777</v>
+        <v>-2.042342764814918</v>
       </c>
       <c r="F7">
-        <v>1.232943225519047</v>
+        <v>-1.94666772400556</v>
       </c>
       <c r="G7">
-        <v>2.068398221677539</v>
+        <v>-2.207086761004283</v>
       </c>
       <c r="H7">
-        <v>1.968318861774917</v>
+        <v>-1.371631764845791</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2.041455937156254</v>
+        <v>-0.06117417841420103</v>
       </c>
       <c r="C8">
-        <v>1.458861400122613</v>
+        <v>1.980281758742053</v>
       </c>
       <c r="D8">
-        <v>1.554536440931971</v>
+        <v>1.397687221708412</v>
       </c>
       <c r="E8">
-        <v>1.294117403933248</v>
+        <v>1.49336226251777</v>
       </c>
       <c r="F8">
-        <v>2.12957240009174</v>
+        <v>1.232943225519047</v>
       </c>
       <c r="G8">
-        <v>2.029493040189118</v>
+        <v>2.068398221677539</v>
       </c>
       <c r="H8">
-        <v>1.675706534109422</v>
+        <v>1.968318861774917</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.5825945370336409</v>
+        <v>2.041455937156254</v>
       </c>
       <c r="C9">
-        <v>-0.4869194962242832</v>
+        <v>1.458861400122613</v>
       </c>
       <c r="D9">
-        <v>-0.747338533223006</v>
+        <v>1.554536440931971</v>
       </c>
       <c r="E9">
-        <v>0.0881164629354852</v>
+        <v>1.294117403933248</v>
       </c>
       <c r="F9">
-        <v>-0.01196289696713632</v>
+        <v>2.12957240009174</v>
       </c>
       <c r="G9">
-        <v>-0.3657494030468326</v>
+        <v>2.029493040189118</v>
       </c>
       <c r="H9">
-        <v>-0.2175720126143872</v>
+        <v>1.675706534109422</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09567504080935779</v>
+        <v>-0.5825945370336409</v>
       </c>
       <c r="C10">
-        <v>-0.164743996189365</v>
+        <v>-0.4869194962242832</v>
       </c>
       <c r="D10">
-        <v>0.6707109999691262</v>
+        <v>-0.747338533223006</v>
       </c>
       <c r="E10">
-        <v>0.5706316400665047</v>
+        <v>0.0881164629354852</v>
       </c>
       <c r="F10">
-        <v>0.2168451339868084</v>
+        <v>-0.01196289696713632</v>
       </c>
       <c r="G10">
-        <v>0.3650225244192538</v>
+        <v>-0.3657494030468326</v>
       </c>
       <c r="H10">
-        <v>0.5224685134234088</v>
+        <v>-0.2175720126143872</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.2604190369987228</v>
+        <v>0.09567504080935779</v>
       </c>
       <c r="C11">
-        <v>0.5750359591597685</v>
+        <v>-0.164743996189365</v>
       </c>
       <c r="D11">
-        <v>0.4749565992571469</v>
+        <v>0.6707109999691262</v>
       </c>
       <c r="E11">
-        <v>0.1211700931774507</v>
+        <v>0.5706316400665047</v>
       </c>
       <c r="F11">
-        <v>0.269347483609896</v>
+        <v>0.2168451339868084</v>
       </c>
       <c r="G11">
-        <v>0.426793472614051</v>
+        <v>0.3650225244192538</v>
       </c>
       <c r="H11">
-        <v>-0.07386598391201982</v>
+        <v>0.5224685134234088</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8354549961584912</v>
+        <v>-0.2604190369987228</v>
       </c>
       <c r="C12">
-        <v>0.7353756362558697</v>
+        <v>0.5750359591597685</v>
       </c>
       <c r="D12">
-        <v>0.3815891301761735</v>
+        <v>0.4749565992571469</v>
       </c>
       <c r="E12">
-        <v>0.5297665206086188</v>
+        <v>0.1211700931774507</v>
       </c>
       <c r="F12">
-        <v>0.6872125096127738</v>
+        <v>0.269347483609896</v>
       </c>
       <c r="G12">
-        <v>0.186553053086703</v>
+        <v>0.426793472614051</v>
       </c>
       <c r="H12">
-        <v>0.4669109336221722</v>
+        <v>-0.07386598391201982</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.1000793599026215</v>
+        <v>0.8354549961584912</v>
       </c>
       <c r="C13">
-        <v>-0.4538658659823178</v>
+        <v>0.7353756362558697</v>
       </c>
       <c r="D13">
-        <v>-0.3056884755498724</v>
+        <v>0.3815891301761735</v>
       </c>
       <c r="E13">
-        <v>-0.1482424865457174</v>
+        <v>0.5297665206086188</v>
       </c>
       <c r="F13">
-        <v>-0.6489019430717882</v>
+        <v>0.6872125096127738</v>
       </c>
       <c r="G13">
-        <v>-0.3685440625363191</v>
+        <v>0.186553053086703</v>
       </c>
       <c r="H13">
-        <v>-0.5405189203813308</v>
+        <v>0.4669109336221722</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.3537865060796963</v>
+        <v>-0.1000793599026215</v>
       </c>
       <c r="C14">
-        <v>-0.2056091156472509</v>
+        <v>-0.4538658659823178</v>
       </c>
       <c r="D14">
-        <v>-0.04816312664309591</v>
+        <v>-0.3056884755498724</v>
       </c>
       <c r="E14">
-        <v>-0.5488225831691667</v>
+        <v>-0.1482424865457174</v>
       </c>
       <c r="F14">
-        <v>-0.2684647026336975</v>
+        <v>-0.6489019430717882</v>
       </c>
       <c r="G14">
-        <v>-0.4404395604787092</v>
+        <v>-0.3685440625363191</v>
       </c>
       <c r="H14">
-        <v>-0.1345770207323777</v>
+        <v>-0.5405189203813308</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1481773904324453</v>
+        <v>-0.3537865060796963</v>
       </c>
       <c r="C15">
-        <v>0.3056233794366003</v>
+        <v>-0.2056091156472509</v>
       </c>
       <c r="D15">
-        <v>-0.1950360770894705</v>
+        <v>-0.04816312664309591</v>
       </c>
       <c r="E15">
-        <v>0.08532180344599868</v>
+        <v>-0.5488225831691667</v>
       </c>
       <c r="F15">
-        <v>-0.08665305439901295</v>
+        <v>-0.2684647026336975</v>
       </c>
       <c r="G15">
-        <v>0.2192094853473185</v>
+        <v>-0.4404395604787092</v>
       </c>
       <c r="H15">
-        <v>-0.3931204673399676</v>
+        <v>-0.1345770207323777</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.157445989004155</v>
+        <v>0.1481773904324453</v>
       </c>
       <c r="C16">
-        <v>-0.3432134675219158</v>
+        <v>0.3056233794366003</v>
       </c>
       <c r="D16">
-        <v>-0.06285558698644665</v>
+        <v>-0.1950360770894705</v>
       </c>
       <c r="E16">
-        <v>-0.2348304448314583</v>
+        <v>0.08532180344599868</v>
       </c>
       <c r="F16">
-        <v>0.0710320949148732</v>
+        <v>-0.08665305439901295</v>
       </c>
       <c r="G16">
-        <v>-0.541297857772413</v>
+        <v>0.2192094853473185</v>
       </c>
       <c r="H16">
-        <v>0.1470735274266985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.3931204673399676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.5006594565260708</v>
+        <v>0.157445989004155</v>
       </c>
       <c r="C17">
-        <v>-0.2203015759906016</v>
+        <v>-0.3432134675219158</v>
       </c>
       <c r="D17">
-        <v>-0.3922764338356133</v>
+        <v>-0.06285558698644665</v>
       </c>
       <c r="E17">
-        <v>-0.0864138940892818</v>
+        <v>-0.2348304448314583</v>
       </c>
       <c r="F17">
-        <v>-0.698743846776568</v>
+        <v>0.0710320949148732</v>
       </c>
       <c r="G17">
-        <v>-0.01037246157745647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.541297857772413</v>
+      </c>
+      <c r="H17">
+        <v>0.1470735274266985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2803578805354692</v>
+        <v>-0.5006594565260708</v>
       </c>
       <c r="C18">
-        <v>0.1083830226904575</v>
+        <v>-0.2203015759906016</v>
       </c>
       <c r="D18">
-        <v>0.414245562436789</v>
+        <v>-0.3922764338356133</v>
       </c>
       <c r="E18">
-        <v>-0.1980843902504972</v>
+        <v>-0.0864138940892818</v>
       </c>
       <c r="F18">
-        <v>0.4902869949486143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.698743846776568</v>
+      </c>
+      <c r="G18">
+        <v>-0.01037246157745647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.1719748578450117</v>
+        <v>0.2803578805354692</v>
       </c>
       <c r="C19">
-        <v>0.1338876819013198</v>
+        <v>0.1083830226904575</v>
       </c>
       <c r="D19">
-        <v>-0.4784422707859664</v>
+        <v>0.414245562436789</v>
       </c>
       <c r="E19">
-        <v>0.2099291144131452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.1980843902504972</v>
+      </c>
+      <c r="F19">
+        <v>0.4902869949486143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3058625397463315</v>
+        <v>-0.1719748578450117</v>
       </c>
       <c r="C20">
-        <v>-0.3064674129409547</v>
+        <v>0.1338876819013198</v>
       </c>
       <c r="D20">
-        <v>0.3819039722581568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.4784422707859664</v>
+      </c>
+      <c r="E20">
+        <v>0.2099291144131452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.6123299526872862</v>
+        <v>0.3058625397463315</v>
       </c>
       <c r="C21">
-        <v>0.07604143251182532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.3064674129409547</v>
+      </c>
+      <c r="D21">
+        <v>0.3819039722581568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C22">
+        <v>0.07604143251182532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.6883713851991116</v>
       </c>
     </row>
